--- a/data.xlsx
+++ b/data.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Cluster</t>
   </si>
@@ -61,6 +63,12 @@
   </si>
   <si>
     <t>RTs/User</t>
+  </si>
+  <si>
+    <t>Mentions/User</t>
+  </si>
+  <si>
+    <t>Hashtags/User</t>
   </si>
 </sst>
 </file>
@@ -692,7 +700,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -724,7 +732,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1726,6 +1734,1488 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mentions/User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.49024752475247502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51428326118326095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48580645161290298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42059523809523802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48221868365180498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56373751734800603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42926056338028201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47544881889763801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42639175257731998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47617256443861999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45264367816091999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43651041666666701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38608695652173902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49223892100192701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52857051635910701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45061068702290002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48244338994338998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42323809523809502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37375000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55097724655361302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47048426150121098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44336805555555497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41872340425531901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44864864864864901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51473012358882997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51485294117646996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50779618078135302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38940594059405897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47997602713242499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48254143646408898</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.394102564102564</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52607407407407403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.462096774193549</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45682097042391201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38329670329670301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37938775510204098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42864672364672302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40349593495934999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53656563434321602</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53021142639922503</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42744186046511601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.48104466230936799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52126613771137698</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52553421368421405</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42892073170731698</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.419722222222222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47187766015497101</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49693430360489199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>20.306930693069301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.022222222222201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.790322580645199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.090909090909101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.171974522292999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4765784114053009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.260563380281699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.606299212598401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.855670103092798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.100917431192698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.965517241379299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.956521739130402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.300578034682101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.6543624161074</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.870229007633601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.937062937062901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2518756698821001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.016949152542399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.877777777777801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.627659574468101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.774774774774802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.6302521008403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.330578512396698</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.108910891089099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.170616113744099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.662983425414399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.615384615384599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.306451612903199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.205882352941199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.164835164835203</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23.255102040816301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.153846153846199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.162601626016301</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.815450643776799</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.593301435406699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.593023255814</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.176470588235301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.6459143968872</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.2675675675676</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29.079268292682901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.851851851851901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.773109243697501</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.3384615384615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAFD-4533-B4BB-566EBFBF7D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="394680128"/>
+        <c:axId val="394679472"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="394680128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394679472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394679472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394680128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hashtags/User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.49024752475247502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51428326118326095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48580645161290298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42059523809523802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48221868365180498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56373751734800603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42926056338028201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47544881889763801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42639175257731998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47617256443861999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45264367816091999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43651041666666701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38608695652173902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49223892100192701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52857051635910701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45061068702290002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48244338994338998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42323809523809502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37375000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55097724655361302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47048426150121098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44336805555555497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41872340425531901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44864864864864901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51473012358882997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51485294117646996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50779618078135302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38940594059405897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47997602713242499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48254143646408898</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.394102564102564</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52607407407407403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.462096774193549</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45682097042391201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38329670329670301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37938775510204098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42864672364672302</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40349593495934999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53656563434321602</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53021142639922503</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42744186046511601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.48104466230936799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52126613771137698</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52553421368421405</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42892073170731698</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.419722222222222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47187766015497101</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49693430360489199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>25.2079207920792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.995555555555601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.790322580645199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.7792207792208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.1082802547771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.095723014256601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.2887323943662</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.496062992125999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.659793814433002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.215596330275201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.091954022988499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.928571428571399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.347826086956498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.618497109826599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.402684563758399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.282442748091601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.881118881118901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.5833333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.5209003215434098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.983050847457601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.511111111111099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.446808510638299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.8108108108108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.0378151260504</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.603305785124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.2673267326733</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.454976303317501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.325966850828699</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.028846153846199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.436507936507901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.709677419354801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.294117647058801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.010989010989</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.928571428571399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.846153846153801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.2764227642276</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.5407725321888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.990430622009601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.976744186046499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.091503267973899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.105058365758801</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.170270270270301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.658536585365901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.3611111111111</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.445378151260499</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.123076923076901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0FE-409A-8695-FD59A2D95A27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="409624368"/>
+        <c:axId val="409620760"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="409624368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409620760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409620760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409624368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3692,6 +5182,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="417198848"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3893,6 +5384,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4945,6 +6516,1076 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5487,14 +8128,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -5525,6 +8166,88 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19C84F3-A848-4CA6-B271-E7C3E29714CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D228E52-D3F5-47A9-B070-F73BF504E7A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5862,10 +8585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5877,7 +8600,7 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5902,8 +8625,11 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5928,8 +8654,11 @@
       <c r="H2">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>20.306930693069301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5954,8 +8683,11 @@
       <c r="H3">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>17.022222222222201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5980,8 +8712,11 @@
       <c r="H4">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>28.790322580645199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6006,8 +8741,11 @@
       <c r="H5">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>26.090909090909101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6032,8 +8770,11 @@
       <c r="H6">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>21.171974522292999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6058,8 +8799,11 @@
       <c r="H7">
         <v>491</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>9.4765784114053009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6084,8 +8828,11 @@
       <c r="H8">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>19.260563380281699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6110,8 +8857,11 @@
       <c r="H9">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>19.606299212598401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6136,8 +8886,11 @@
       <c r="H10">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>30.855670103092798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6162,8 +8915,11 @@
       <c r="H11">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>23.100917431192698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6188,8 +8944,11 @@
       <c r="H12">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>23.965517241379299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6214,8 +8973,11 @@
       <c r="H13">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>22.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6240,8 +9002,11 @@
       <c r="H14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>40.956521739130402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6266,8 +9031,11 @@
       <c r="H15">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>21.300578034682101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6292,8 +9060,11 @@
       <c r="H16">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>13.6543624161074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6318,8 +9089,11 @@
       <c r="H17">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>21.870229007633601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6344,8 +9118,11 @@
       <c r="H18">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>19.937062937062901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6370,8 +9147,11 @@
       <c r="H19">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6396,8 +9176,11 @@
       <c r="H20">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6422,8 +9205,11 @@
       <c r="H21">
         <v>933</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>6.2518756698821001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6448,8 +9234,11 @@
       <c r="H22">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>21.016949152542399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6474,8 +9263,11 @@
       <c r="H23">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>17.225000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6500,8 +9292,11 @@
       <c r="H24">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>24.877777777777801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6526,8 +9321,11 @@
       <c r="H25">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>23.627659574468101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6552,8 +9350,11 @@
       <c r="H26">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>19.774774774774802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6578,8 +9379,11 @@
       <c r="H27">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>17.512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6604,8 +9408,11 @@
       <c r="H28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>35.979999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6630,8 +9437,11 @@
       <c r="H29">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>15.6302521008403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6656,8 +9466,11 @@
       <c r="H30">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>18.330578512396698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6682,8 +9495,11 @@
       <c r="H31">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>30.108910891089099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6708,8 +9524,11 @@
       <c r="H32">
         <v>211</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>20.170616113744099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6734,8 +9553,11 @@
       <c r="H33">
         <v>181</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>20.662983425414399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6760,8 +9582,11 @@
       <c r="H34">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>27.615384615384599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6786,8 +9611,11 @@
       <c r="H35">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6812,8 +9640,11 @@
       <c r="H36">
         <v>124</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>24.306451612903199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6838,8 +9669,11 @@
       <c r="H37">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>25.205882352941199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6864,8 +9698,11 @@
       <c r="H38">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>35.164835164835203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6890,8 +9727,11 @@
       <c r="H39">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>23.255102040816301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6916,8 +9756,11 @@
       <c r="H40">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>22.153846153846199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6942,8 +9785,11 @@
       <c r="H41">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>22.162601626016301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6968,8 +9814,11 @@
       <c r="H42">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>11.815450643776799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6994,8 +9843,11 @@
       <c r="H43">
         <v>209</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>14.593301435406699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7020,8 +9872,11 @@
       <c r="H44">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>25.593023255814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7046,8 +9901,11 @@
       <c r="H45">
         <v>153</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>18.176470588235301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7072,8 +9930,11 @@
       <c r="H46">
         <v>257</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>15.6459143968872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7098,8 +9959,11 @@
       <c r="H47">
         <v>370</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>12.2675675675676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7124,8 +9988,11 @@
       <c r="H48">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>29.079268292682901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7150,8 +10017,11 @@
       <c r="H49">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>19.851851851851901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7176,8 +10046,11 @@
       <c r="H50">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>17.773109243697501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7201,6 +10074,9 @@
       </c>
       <c r="H51">
         <v>130</v>
+      </c>
+      <c r="I51">
+        <v>15.3384615384615</v>
       </c>
     </row>
   </sheetData>
@@ -7210,6 +10086,1160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.49024752475247502</v>
+      </c>
+      <c r="B2">
+        <v>20.306930693069301</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.51428326118326095</v>
+      </c>
+      <c r="B3">
+        <v>17.022222222222201</v>
+      </c>
+      <c r="C3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.48580645161290298</v>
+      </c>
+      <c r="B4">
+        <v>28.790322580645199</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.42059523809523802</v>
+      </c>
+      <c r="B5">
+        <v>26.090909090909101</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.48221868365180498</v>
+      </c>
+      <c r="B6">
+        <v>21.171974522292999</v>
+      </c>
+      <c r="C6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.56373751734800603</v>
+      </c>
+      <c r="B7">
+        <v>9.4765784114053009</v>
+      </c>
+      <c r="C7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.42926056338028201</v>
+      </c>
+      <c r="B8">
+        <v>19.260563380281699</v>
+      </c>
+      <c r="C8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.47544881889763801</v>
+      </c>
+      <c r="B9">
+        <v>19.606299212598401</v>
+      </c>
+      <c r="C9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.42639175257731998</v>
+      </c>
+      <c r="B10">
+        <v>30.855670103092798</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.47617256443861999</v>
+      </c>
+      <c r="B11">
+        <v>23.100917431192698</v>
+      </c>
+      <c r="C11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.45264367816091999</v>
+      </c>
+      <c r="B12">
+        <v>23.965517241379299</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.43651041666666701</v>
+      </c>
+      <c r="B13">
+        <v>22.125</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.38608695652173902</v>
+      </c>
+      <c r="B14">
+        <v>40.956521739130402</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.49223892100192701</v>
+      </c>
+      <c r="B15">
+        <v>21.300578034682101</v>
+      </c>
+      <c r="C15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.52857051635910701</v>
+      </c>
+      <c r="B16">
+        <v>13.6543624161074</v>
+      </c>
+      <c r="C16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.45061068702290002</v>
+      </c>
+      <c r="B17">
+        <v>21.870229007633601</v>
+      </c>
+      <c r="C17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.48244338994338998</v>
+      </c>
+      <c r="B18">
+        <v>19.937062937062901</v>
+      </c>
+      <c r="C18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.42323809523809502</v>
+      </c>
+      <c r="B19">
+        <v>24.6</v>
+      </c>
+      <c r="C19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.37375000000000003</v>
+      </c>
+      <c r="B20">
+        <v>23.625</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.55097724655361302</v>
+      </c>
+      <c r="B21">
+        <v>6.2518756698821001</v>
+      </c>
+      <c r="C21">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.47048426150121098</v>
+      </c>
+      <c r="B22">
+        <v>21.016949152542399</v>
+      </c>
+      <c r="C22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.44336805555555497</v>
+      </c>
+      <c r="B23">
+        <v>17.225000000000001</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="B24">
+        <v>24.877777777777801</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.41872340425531901</v>
+      </c>
+      <c r="B25">
+        <v>23.627659574468101</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.44864864864864901</v>
+      </c>
+      <c r="B26">
+        <v>19.774774774774802</v>
+      </c>
+      <c r="C26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.51473012358882997</v>
+      </c>
+      <c r="B27">
+        <v>17.512</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="B28">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.51485294117646996</v>
+      </c>
+      <c r="B29">
+        <v>15.6302521008403</v>
+      </c>
+      <c r="C29">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.50779618078135302</v>
+      </c>
+      <c r="B30">
+        <v>18.330578512396698</v>
+      </c>
+      <c r="C30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.38940594059405897</v>
+      </c>
+      <c r="B31">
+        <v>30.108910891089099</v>
+      </c>
+      <c r="C31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.47997602713242499</v>
+      </c>
+      <c r="B32">
+        <v>20.170616113744099</v>
+      </c>
+      <c r="C32">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.48254143646408898</v>
+      </c>
+      <c r="B33">
+        <v>20.662983425414399</v>
+      </c>
+      <c r="C33">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.394102564102564</v>
+      </c>
+      <c r="B34">
+        <v>27.615384615384599</v>
+      </c>
+      <c r="C34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.52607407407407403</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.462096774193549</v>
+      </c>
+      <c r="B36">
+        <v>24.306451612903199</v>
+      </c>
+      <c r="C36">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.45682097042391201</v>
+      </c>
+      <c r="B37">
+        <v>25.205882352941199</v>
+      </c>
+      <c r="C37">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.38329670329670301</v>
+      </c>
+      <c r="B38">
+        <v>35.164835164835203</v>
+      </c>
+      <c r="C38">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.37938775510204098</v>
+      </c>
+      <c r="B39">
+        <v>23.255102040816301</v>
+      </c>
+      <c r="C39">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.42864672364672302</v>
+      </c>
+      <c r="B40">
+        <v>22.153846153846199</v>
+      </c>
+      <c r="C40">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.40349593495934999</v>
+      </c>
+      <c r="B41">
+        <v>22.162601626016301</v>
+      </c>
+      <c r="C41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.53656563434321602</v>
+      </c>
+      <c r="B42">
+        <v>11.815450643776799</v>
+      </c>
+      <c r="C42">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.53021142639922503</v>
+      </c>
+      <c r="B43">
+        <v>14.593301435406699</v>
+      </c>
+      <c r="C43">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.42744186046511601</v>
+      </c>
+      <c r="B44">
+        <v>25.593023255814</v>
+      </c>
+      <c r="C44">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.48104466230936799</v>
+      </c>
+      <c r="B45">
+        <v>18.176470588235301</v>
+      </c>
+      <c r="C45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.52126613771137698</v>
+      </c>
+      <c r="B46">
+        <v>15.6459143968872</v>
+      </c>
+      <c r="C46">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.52553421368421405</v>
+      </c>
+      <c r="B47">
+        <v>12.2675675675676</v>
+      </c>
+      <c r="C47">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.42892073170731698</v>
+      </c>
+      <c r="B48">
+        <v>29.079268292682901</v>
+      </c>
+      <c r="C48">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.419722222222222</v>
+      </c>
+      <c r="B49">
+        <v>19.851851851851901</v>
+      </c>
+      <c r="C49">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.47187766015497101</v>
+      </c>
+      <c r="B50">
+        <v>17.773109243697501</v>
+      </c>
+      <c r="C50">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.49693430360489199</v>
+      </c>
+      <c r="B51">
+        <v>15.3384615384615</v>
+      </c>
+      <c r="C51">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.49024752475247502</v>
+      </c>
+      <c r="B2">
+        <v>25.2079207920792</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.51428326118326095</v>
+      </c>
+      <c r="B3">
+        <v>20.995555555555601</v>
+      </c>
+      <c r="C3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.48580645161290298</v>
+      </c>
+      <c r="B4">
+        <v>28.790322580645199</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.42059523809523802</v>
+      </c>
+      <c r="B5">
+        <v>22.7792207792208</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.48221868365180498</v>
+      </c>
+      <c r="B6">
+        <v>24.1082802547771</v>
+      </c>
+      <c r="C6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.56373751734800603</v>
+      </c>
+      <c r="B7">
+        <v>13.095723014256601</v>
+      </c>
+      <c r="C7">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.42926056338028201</v>
+      </c>
+      <c r="B8">
+        <v>23.2887323943662</v>
+      </c>
+      <c r="C8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.47544881889763801</v>
+      </c>
+      <c r="B9">
+        <v>21.496062992125999</v>
+      </c>
+      <c r="C9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.42639175257731998</v>
+      </c>
+      <c r="B10">
+        <v>33.659793814433002</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.47617256443861999</v>
+      </c>
+      <c r="B11">
+        <v>24.215596330275201</v>
+      </c>
+      <c r="C11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.45264367816091999</v>
+      </c>
+      <c r="B12">
+        <v>31.091954022988499</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.43651041666666701</v>
+      </c>
+      <c r="B13">
+        <v>23.928571428571399</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.38608695652173902</v>
+      </c>
+      <c r="B14">
+        <v>24.347826086956498</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.49223892100192701</v>
+      </c>
+      <c r="B15">
+        <v>22.618497109826599</v>
+      </c>
+      <c r="C15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.52857051635910701</v>
+      </c>
+      <c r="B16">
+        <v>17.402684563758399</v>
+      </c>
+      <c r="C16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.45061068702290002</v>
+      </c>
+      <c r="B17">
+        <v>24.282442748091601</v>
+      </c>
+      <c r="C17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.48244338994338998</v>
+      </c>
+      <c r="B18">
+        <v>20.881118881118901</v>
+      </c>
+      <c r="C18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.42323809523809502</v>
+      </c>
+      <c r="B19">
+        <v>24.8</v>
+      </c>
+      <c r="C19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.37375000000000003</v>
+      </c>
+      <c r="B20">
+        <v>35.5833333333333</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.55097724655361302</v>
+      </c>
+      <c r="B21">
+        <v>7.5209003215434098</v>
+      </c>
+      <c r="C21">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.47048426150121098</v>
+      </c>
+      <c r="B22">
+        <v>26.983050847457601</v>
+      </c>
+      <c r="C22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.44336805555555497</v>
+      </c>
+      <c r="B23">
+        <v>23.475000000000001</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="B24">
+        <v>22.511111111111099</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.41872340425531901</v>
+      </c>
+      <c r="B25">
+        <v>27.446808510638299</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.44864864864864901</v>
+      </c>
+      <c r="B26">
+        <v>24.8108108108108</v>
+      </c>
+      <c r="C26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.51473012358882997</v>
+      </c>
+      <c r="B27">
+        <v>22.687999999999999</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="B28">
+        <v>22.76</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.51485294117646996</v>
+      </c>
+      <c r="B29">
+        <v>21.0378151260504</v>
+      </c>
+      <c r="C29">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.50779618078135302</v>
+      </c>
+      <c r="B30">
+        <v>21.603305785124</v>
+      </c>
+      <c r="C30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.38940594059405897</v>
+      </c>
+      <c r="B31">
+        <v>29.2673267326733</v>
+      </c>
+      <c r="C31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.47997602713242499</v>
+      </c>
+      <c r="B32">
+        <v>25.454976303317501</v>
+      </c>
+      <c r="C32">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.48254143646408898</v>
+      </c>
+      <c r="B33">
+        <v>23.325966850828699</v>
+      </c>
+      <c r="C33">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.394102564102564</v>
+      </c>
+      <c r="B34">
+        <v>25.028846153846199</v>
+      </c>
+      <c r="C34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.52607407407407403</v>
+      </c>
+      <c r="B35">
+        <v>19.436507936507901</v>
+      </c>
+      <c r="C35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.462096774193549</v>
+      </c>
+      <c r="B36">
+        <v>24.709677419354801</v>
+      </c>
+      <c r="C36">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.45682097042391201</v>
+      </c>
+      <c r="B37">
+        <v>22.294117647058801</v>
+      </c>
+      <c r="C37">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.38329670329670301</v>
+      </c>
+      <c r="B38">
+        <v>33.010989010989</v>
+      </c>
+      <c r="C38">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.37938775510204098</v>
+      </c>
+      <c r="B39">
+        <v>28.928571428571399</v>
+      </c>
+      <c r="C39">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.42864672364672302</v>
+      </c>
+      <c r="B40">
+        <v>25.846153846153801</v>
+      </c>
+      <c r="C40">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.40349593495934999</v>
+      </c>
+      <c r="B41">
+        <v>28.2764227642276</v>
+      </c>
+      <c r="C41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.53656563434321602</v>
+      </c>
+      <c r="B42">
+        <v>23.5407725321888</v>
+      </c>
+      <c r="C42">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.53021142639922503</v>
+      </c>
+      <c r="B43">
+        <v>18.990430622009601</v>
+      </c>
+      <c r="C43">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.42744186046511601</v>
+      </c>
+      <c r="B44">
+        <v>24.976744186046499</v>
+      </c>
+      <c r="C44">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.48104466230936799</v>
+      </c>
+      <c r="B45">
+        <v>22.091503267973899</v>
+      </c>
+      <c r="C45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.52126613771137698</v>
+      </c>
+      <c r="B46">
+        <v>22.105058365758801</v>
+      </c>
+      <c r="C46">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.52553421368421405</v>
+      </c>
+      <c r="B47">
+        <v>17.170270270270301</v>
+      </c>
+      <c r="C47">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.42892073170731698</v>
+      </c>
+      <c r="B48">
+        <v>30.658536585365901</v>
+      </c>
+      <c r="C48">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.419722222222222</v>
+      </c>
+      <c r="B49">
+        <v>25.3611111111111</v>
+      </c>
+      <c r="C49">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.47187766015497101</v>
+      </c>
+      <c r="B50">
+        <v>19.445378151260499</v>
+      </c>
+      <c r="C50">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.49693430360489199</v>
+      </c>
+      <c r="B51">
+        <v>24.123076923076901</v>
+      </c>
+      <c r="C51">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
